--- a/REGULAR/RE-ENCODE/re encode/BURAZON, CARIDAD.xlsx
+++ b/REGULAR/RE-ENCODE/re encode/BURAZON, CARIDAD.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1323,7 +1323,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3990" topLeftCell="A85" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B93" sqref="B93"/>
+      <selection pane="bottomLeft" activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1490,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>276.89</v>
+        <v>279.39</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1500,7 +1500,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>279.11</v>
+        <v>280.61</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3278,13 +3278,15 @@
       <c r="B92" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C92" s="13"/>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="39">
         <v>1</v>
@@ -3300,13 +3302,15 @@
         <v>45047</v>
       </c>
       <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
+      <c r="C93" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G93" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
@@ -3317,7 +3321,9 @@
       <c r="A94" s="40">
         <v>45078</v>
       </c>
-      <c r="B94" s="20"/>
+      <c r="B94" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
@@ -3326,10 +3332,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H94" s="39"/>
+      <c r="H94" s="39">
+        <v>1</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="49">
+        <v>45083</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">

--- a/REGULAR/RE-ENCODE/re encode/BURAZON, CARIDAD.xlsx
+++ b/REGULAR/RE-ENCODE/re encode/BURAZON, CARIDAD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56852821-C9EB-44A9-9724-CD27E050AF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -303,7 +304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -972,7 +973,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -989,25 +990,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1314,34 +1315,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K133"/>
+  <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3990" topLeftCell="A85" activePane="bottomLeft"/>
+      <pane ySplit="3984" topLeftCell="A88" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K95" sqref="K95"/>
+      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1364,7 +1365,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1386,7 +1387,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1408,7 +1409,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1416,7 +1417,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1429,7 +1430,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1446,7 +1447,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1505,7 +1506,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>48</v>
       </c>
@@ -1527,7 +1528,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1551,7 +1552,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1571,7 +1572,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1591,7 +1592,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1611,7 +1612,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1631,7 +1632,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1675,7 +1676,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1695,7 +1696,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1715,7 +1716,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1765,7 +1766,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1787,7 +1788,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>52</v>
@@ -1807,7 +1808,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>49</v>
@@ -1825,7 +1826,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>56</v>
@@ -1847,7 +1848,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>57</v>
       </c>
@@ -1865,7 +1866,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43466</v>
       </c>
@@ -1885,7 +1886,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43497</v>
       </c>
@@ -1905,7 +1906,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43525</v>
       </c>
@@ -1925,7 +1926,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43556</v>
       </c>
@@ -1945,7 +1946,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43586</v>
       </c>
@@ -1965,7 +1966,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43617</v>
       </c>
@@ -1989,7 +1990,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -2011,7 +2012,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -2031,7 +2032,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -2057,7 +2058,7 @@
         <v>43533</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43739</v>
       </c>
@@ -2081,7 +2082,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43770</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43800</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>62</v>
       </c>
@@ -2145,7 +2146,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>63</v>
@@ -2193,7 +2194,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43862</v>
       </c>
@@ -2213,7 +2214,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43862</v>
       </c>
@@ -2233,7 +2234,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44621</v>
       </c>
@@ -2253,7 +2254,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43922</v>
       </c>
@@ -2273,7 +2274,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43952</v>
       </c>
@@ -2293,7 +2294,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43983</v>
       </c>
@@ -2317,7 +2318,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>49</v>
@@ -2337,7 +2338,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44013</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44044</v>
       </c>
@@ -2383,7 +2384,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44075</v>
       </c>
@@ -2403,7 +2404,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44105</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>84</v>
@@ -2453,7 +2454,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44136</v>
       </c>
@@ -2473,7 +2474,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44166</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23" t="s">
         <v>70</v>
       </c>
@@ -2517,7 +2518,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44197</v>
       </c>
@@ -2537,7 +2538,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44228</v>
       </c>
@@ -2557,7 +2558,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44256</v>
       </c>
@@ -2577,7 +2578,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44287</v>
       </c>
@@ -2597,7 +2598,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44317</v>
       </c>
@@ -2617,7 +2618,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44348</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>61</v>
@@ -2663,7 +2664,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>52</v>
@@ -2683,7 +2684,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44378</v>
       </c>
@@ -2703,7 +2704,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44409</v>
       </c>
@@ -2723,7 +2724,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44440</v>
       </c>
@@ -2743,7 +2744,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44470</v>
       </c>
@@ -2763,7 +2764,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44501</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>61</v>
@@ -2811,7 +2812,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>52</v>
@@ -2833,7 +2834,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44531</v>
       </c>
@@ -2853,7 +2854,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="48" t="s">
         <v>75</v>
       </c>
@@ -2871,7 +2872,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44562</v>
       </c>
@@ -2897,7 +2898,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44593</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44621</v>
       </c>
@@ -2941,7 +2942,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44652</v>
       </c>
@@ -2961,7 +2962,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44682</v>
       </c>
@@ -2987,7 +2988,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44713</v>
       </c>
@@ -3007,7 +3008,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44743</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44774</v>
       </c>
@@ -3051,7 +3052,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44805</v>
       </c>
@@ -3071,7 +3072,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44835</v>
       </c>
@@ -3095,7 +3096,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44866</v>
       </c>
@@ -3115,7 +3116,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>44896</v>
       </c>
@@ -3141,7 +3142,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>83</v>
@@ -3161,7 +3162,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="49"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="48" t="s">
         <v>81</v>
       </c>
@@ -3179,7 +3180,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44927</v>
       </c>
@@ -3199,7 +3200,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>44958</v>
       </c>
@@ -3225,7 +3226,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>52</v>
@@ -3247,7 +3248,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44986</v>
       </c>
@@ -3271,7 +3272,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45017</v>
       </c>
@@ -3297,7 +3298,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45047</v>
       </c>
@@ -3317,7 +3318,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45078</v>
       </c>
@@ -3341,11 +3342,11 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B95" s="20"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40"/>
+      <c r="B95" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
@@ -3357,11 +3358,13 @@
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K95" s="49">
+        <v>45120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3377,9 +3380,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3395,9 +3398,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3413,9 +3416,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3431,9 +3434,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3449,9 +3452,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3467,9 +3470,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3485,9 +3488,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3503,9 +3506,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3521,9 +3524,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3539,9 +3542,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3557,9 +3560,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3575,9 +3578,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3593,9 +3596,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3611,9 +3614,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3629,9 +3632,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3647,9 +3650,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3665,9 +3668,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3683,9 +3686,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3701,9 +3704,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3719,9 +3722,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3737,9 +3740,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3755,9 +3758,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3773,9 +3776,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3791,9 +3794,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3809,9 +3812,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3827,9 +3830,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3845,9 +3848,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3863,9 +3866,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3881,9 +3884,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3899,9 +3902,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3917,9 +3920,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3935,9 +3938,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3953,9 +3956,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3971,9 +3974,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3989,9 +3992,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4007,9 +4010,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4025,23 +4028,41 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
+        <v>46235</v>
+      </c>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="40">
         <v>46266</v>
       </c>
-      <c r="B133" s="15"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="43"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="43"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="12"/>
-      <c r="K133" s="15"/>
+      <c r="B134" s="15"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="43"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="43"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="12"/>
+      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4058,10 +4079,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4084,28 +4105,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4118,7 +4139,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4147,7 +4168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>220.39</v>
       </c>
@@ -4171,17 +4192,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4202,7 +4223,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4229,7 +4250,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4255,7 +4276,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4281,7 +4302,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4307,7 +4328,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4333,7 +4354,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4359,7 +4380,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4385,7 +4406,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4411,7 +4432,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4431,7 +4452,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4451,7 +4472,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4471,7 +4492,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4492,7 +4513,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4513,7 +4534,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4534,7 +4555,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4555,7 +4576,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4576,7 +4597,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4597,7 +4618,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4618,7 +4639,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4639,7 +4660,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4660,7 +4681,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4681,7 +4702,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4702,7 +4723,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4723,7 +4744,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4744,7 +4765,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4765,7 +4786,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4786,7 +4807,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4807,7 +4828,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4828,7 +4849,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4849,7 +4870,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4870,7 +4891,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4891,7 +4912,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4900,7 +4921,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4909,7 +4930,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4918,7 +4939,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4927,7 +4948,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4936,7 +4957,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4945,7 +4966,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4954,7 +4975,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4963,7 +4984,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4972,7 +4993,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -4981,7 +5002,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -4990,7 +5011,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -4999,7 +5020,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5008,7 +5029,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5017,7 +5038,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5026,7 +5047,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5035,7 +5056,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5044,7 +5065,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5053,7 +5074,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5062,7 +5083,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5071,7 +5092,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5080,7 +5101,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5089,7 +5110,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5098,7 +5119,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5107,7 +5128,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5116,7 +5137,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5125,7 +5146,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5134,7 +5155,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5143,7 +5164,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5152,7 +5173,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/RE-ENCODE/re encode/BURAZON, CARIDAD.xlsx
+++ b/REGULAR/RE-ENCODE/re encode/BURAZON, CARIDAD.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\re encode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56852821-C9EB-44A9-9724-CD27E050AF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -973,7 +972,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -990,25 +989,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1315,34 +1314,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3984" topLeftCell="A88" activePane="bottomLeft"/>
+      <pane ySplit="3990" topLeftCell="A85" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E96" sqref="E96"/>
+      <selection pane="bottomLeft" activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1365,7 +1364,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1387,7 +1386,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1409,7 +1408,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1417,7 +1416,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1430,7 +1429,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1447,7 +1446,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1491,7 +1490,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>279.39</v>
+        <v>280.64</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1501,12 +1500,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>280.61</v>
+        <v>281.86</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>48</v>
       </c>
@@ -1528,7 +1527,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1552,7 +1551,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1572,7 +1571,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1592,7 +1591,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1612,7 +1611,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1632,7 +1631,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1656,7 +1655,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1676,7 +1675,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1696,7 +1695,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1716,7 +1715,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1766,7 +1765,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1788,7 +1787,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>52</v>
@@ -1808,7 +1807,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>49</v>
@@ -1826,7 +1825,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>56</v>
@@ -1848,7 +1847,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>57</v>
       </c>
@@ -1866,7 +1865,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43466</v>
       </c>
@@ -1886,7 +1885,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43497</v>
       </c>
@@ -1906,7 +1905,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43525</v>
       </c>
@@ -1926,7 +1925,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43556</v>
       </c>
@@ -1946,7 +1945,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43586</v>
       </c>
@@ -1966,7 +1965,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43617</v>
       </c>
@@ -1990,7 +1989,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43647</v>
       </c>
@@ -2012,7 +2011,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43678</v>
       </c>
@@ -2032,7 +2031,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43709</v>
       </c>
@@ -2058,7 +2057,7 @@
         <v>43533</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43739</v>
       </c>
@@ -2082,7 +2081,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43770</v>
       </c>
@@ -2104,7 +2103,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43800</v>
       </c>
@@ -2128,7 +2127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>62</v>
       </c>
@@ -2146,7 +2145,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>63</v>
@@ -2194,7 +2193,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43862</v>
       </c>
@@ -2214,7 +2213,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43862</v>
       </c>
@@ -2234,7 +2233,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44621</v>
       </c>
@@ -2254,7 +2253,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43922</v>
       </c>
@@ -2274,7 +2273,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43952</v>
       </c>
@@ -2294,7 +2293,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43983</v>
       </c>
@@ -2318,7 +2317,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>49</v>
@@ -2338,7 +2337,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44013</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44044</v>
       </c>
@@ -2384,7 +2383,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44075</v>
       </c>
@@ -2404,7 +2403,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44105</v>
       </c>
@@ -2430,7 +2429,7 @@
         <v>44022</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>84</v>
@@ -2454,7 +2453,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44136</v>
       </c>
@@ -2474,7 +2473,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44166</v>
       </c>
@@ -2500,7 +2499,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>70</v>
       </c>
@@ -2518,7 +2517,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44197</v>
       </c>
@@ -2538,7 +2537,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44228</v>
       </c>
@@ -2558,7 +2557,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44256</v>
       </c>
@@ -2578,7 +2577,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44287</v>
       </c>
@@ -2598,7 +2597,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44317</v>
       </c>
@@ -2618,7 +2617,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44348</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>61</v>
@@ -2664,7 +2663,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>52</v>
@@ -2684,7 +2683,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44378</v>
       </c>
@@ -2704,7 +2703,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44409</v>
       </c>
@@ -2724,7 +2723,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44440</v>
       </c>
@@ -2744,7 +2743,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44470</v>
       </c>
@@ -2764,7 +2763,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44501</v>
       </c>
@@ -2790,7 +2789,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>61</v>
@@ -2812,7 +2811,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>52</v>
@@ -2834,7 +2833,7 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44531</v>
       </c>
@@ -2854,7 +2853,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
         <v>75</v>
       </c>
@@ -2872,7 +2871,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44562</v>
       </c>
@@ -2898,7 +2897,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44593</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44621</v>
       </c>
@@ -2942,7 +2941,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44652</v>
       </c>
@@ -2962,7 +2961,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44682</v>
       </c>
@@ -2988,7 +2987,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44713</v>
       </c>
@@ -3008,7 +3007,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44743</v>
       </c>
@@ -3032,7 +3031,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44774</v>
       </c>
@@ -3052,7 +3051,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44805</v>
       </c>
@@ -3072,7 +3071,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44835</v>
       </c>
@@ -3096,7 +3095,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44866</v>
       </c>
@@ -3116,7 +3115,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44896</v>
       </c>
@@ -3142,7 +3141,7 @@
         <v>44923</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>83</v>
@@ -3162,7 +3161,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="49"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="48" t="s">
         <v>81</v>
       </c>
@@ -3180,7 +3179,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44927</v>
       </c>
@@ -3200,7 +3199,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44958</v>
       </c>
@@ -3226,7 +3225,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>52</v>
@@ -3248,7 +3247,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44986</v>
       </c>
@@ -3272,7 +3271,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45017</v>
       </c>
@@ -3298,7 +3297,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45047</v>
       </c>
@@ -3318,20 +3317,22 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45078</v>
       </c>
       <c r="B94" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C94" s="13"/>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H94" s="39">
         <v>1</v>
@@ -3342,7 +3343,7 @@
         <v>45083</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>49</v>
@@ -3362,7 +3363,7 @@
         <v>45120</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45108</v>
       </c>
@@ -3380,7 +3381,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45139</v>
       </c>
@@ -3398,7 +3399,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45170</v>
       </c>
@@ -3416,7 +3417,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45200</v>
       </c>
@@ -3434,7 +3435,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45231</v>
       </c>
@@ -3452,7 +3453,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45261</v>
       </c>
@@ -3470,7 +3471,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45292</v>
       </c>
@@ -3488,7 +3489,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45323</v>
       </c>
@@ -3506,7 +3507,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45352</v>
       </c>
@@ -3524,7 +3525,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45383</v>
       </c>
@@ -3542,7 +3543,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45413</v>
       </c>
@@ -3560,7 +3561,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45444</v>
       </c>
@@ -3578,7 +3579,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45474</v>
       </c>
@@ -3596,7 +3597,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45505</v>
       </c>
@@ -3614,7 +3615,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45536</v>
       </c>
@@ -3632,7 +3633,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45566</v>
       </c>
@@ -3650,7 +3651,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45597</v>
       </c>
@@ -3668,7 +3669,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45627</v>
       </c>
@@ -3686,7 +3687,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45658</v>
       </c>
@@ -3704,7 +3705,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45689</v>
       </c>
@@ -3722,7 +3723,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45717</v>
       </c>
@@ -3740,7 +3741,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45748</v>
       </c>
@@ -3758,7 +3759,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45778</v>
       </c>
@@ -3776,7 +3777,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45809</v>
       </c>
@@ -3794,7 +3795,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45839</v>
       </c>
@@ -3812,7 +3813,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45870</v>
       </c>
@@ -3830,7 +3831,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>45901</v>
       </c>
@@ -3848,7 +3849,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>45931</v>
       </c>
@@ -3866,7 +3867,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>45962</v>
       </c>
@@ -3884,7 +3885,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>45992</v>
       </c>
@@ -3902,7 +3903,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>46023</v>
       </c>
@@ -3920,7 +3921,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>46054</v>
       </c>
@@ -3938,7 +3939,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>46082</v>
       </c>
@@ -3956,7 +3957,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>46113</v>
       </c>
@@ -3974,7 +3975,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>46143</v>
       </c>
@@ -3992,7 +3993,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>46174</v>
       </c>
@@ -4010,7 +4011,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>46204</v>
       </c>
@@ -4028,7 +4029,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>46235</v>
       </c>
@@ -4046,7 +4047,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>46266</v>
       </c>
@@ -4079,10 +4080,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4105,28 +4106,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4139,7 +4140,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4168,7 +4169,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>220.39</v>
       </c>
@@ -4192,17 +4193,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4223,7 +4224,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4250,7 +4251,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4276,7 +4277,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4302,7 +4303,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4328,7 +4329,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4354,7 +4355,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4380,7 +4381,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4406,7 +4407,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4432,7 +4433,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4452,7 +4453,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4492,7 +4493,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4513,7 +4514,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4534,7 +4535,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4555,7 +4556,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4576,7 +4577,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4597,7 +4598,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4618,7 +4619,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4639,7 +4640,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4660,7 +4661,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4681,7 +4682,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4744,7 +4745,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4786,7 +4787,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4807,7 +4808,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4849,7 +4850,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4870,7 +4871,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4891,7 +4892,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4912,7 +4913,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4921,7 +4922,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4930,7 +4931,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4939,7 +4940,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4948,7 +4949,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4957,7 +4958,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4966,7 +4967,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4975,7 +4976,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4984,7 +4985,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4993,7 +4994,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5002,7 +5003,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5011,7 +5012,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5020,7 +5021,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5029,7 +5030,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5038,7 +5039,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5047,7 +5048,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5056,7 +5057,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5065,7 +5066,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5074,7 +5075,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5083,7 +5084,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5092,7 +5093,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5101,7 +5102,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5110,7 +5111,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5119,7 +5120,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5128,7 +5129,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5137,7 +5138,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5146,7 +5147,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5155,7 +5156,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5164,7 +5165,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5173,7 +5174,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
